--- a/Employee_Reports29/Cletes Albert Perera Q0130.xlsx
+++ b/Employee_Reports29/Cletes Albert Perera Q0130.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +463,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="54" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -539,7 +543,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>EWS EQ  (Cargo Trainings)</t>
+          <t>Stacker crane (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -549,7 +553,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-004</t>
+          <t>LSME-CRG-M-002</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -559,20 +563,20 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>20-Jan-2025</t>
+          <t>11-Sep-2025</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>20-Jan-2027</t>
+          <t>11-Sep-2027</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>490</v>
+        <v>723</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -588,7 +592,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CS-H9-TV (Cargo Trainings)</t>
+          <t>EWS EQ  (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -598,7 +602,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-003</t>
+          <t>LSME-CRG-M-004</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -608,20 +612,20 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>25-Feb-2025</t>
+          <t>20-Jan-2025</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>25-Feb-2027</t>
+          <t>20-Jan-2027</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -637,7 +641,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>TT+RA (Cargo Trainings)</t>
+          <t>CS-H9-TV (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -647,7 +651,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-007</t>
+          <t>LSME-CRG-M-003</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -657,20 +661,20 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>03-Mar-2025</t>
+          <t>25-Feb-2025</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>03-Mar-2027</t>
+          <t>25-Feb-2027</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -686,7 +690,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CS-Hoist (Cargo Trainings)</t>
+          <t>ULD&amp;BB-TV (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -696,7 +700,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-001</t>
+          <t>LSME-CRG-M-010</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -706,20 +710,20 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>17-Aug-2024</t>
+          <t>11-Sep-2025</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>17-Aug-2026</t>
+          <t>11-Sep-2027</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>334</v>
+        <v>723</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -735,7 +739,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ULD Hoist (Cargo Trainings)</t>
+          <t>FMC-deck (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -745,7 +749,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-008</t>
+          <t>LSME-CRG-M-005</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -755,20 +759,20 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>21-Jan-2025</t>
+          <t>11-Sep-2025</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>21-Jan-2027</t>
+          <t>11-Sep-2027</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>491</v>
+        <v>723</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -784,7 +788,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Truck dock (Cargo Trainings)</t>
+          <t>Weight scales (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -794,7 +798,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-006</t>
+          <t>LSME-CRG-M-013</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -804,20 +808,20 @@
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>26-Jan-2025</t>
+          <t>10-Sep-2025</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>26-Jan-2027</t>
+          <t>10-Sep-2027</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>496</v>
+        <v>722</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -833,7 +837,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Climate Control Center (Cargo Trainings)</t>
+          <t>Tilting deck (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -843,7 +847,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-M-014</t>
+          <t>LSME-CRG-M-009</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -853,20 +857,20 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>05-Nov-2024</t>
+          <t>10-Sep-2025</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>05-Nov-2026</t>
+          <t>10-Sep-2027</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>414</v>
+        <v>722</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -877,51 +881,53 @@
       <c r="K9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>03-Oct-2024</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>03-Oct-2025</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>16-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>TT+RA (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-007</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>03-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>03-Mar-2027</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>531</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -929,38 +935,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+          <t>CS-Hoist (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v/>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-001</t>
+        </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>SOP</t>
+          <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>19-Feb-2025</t>
+          <t>17-Aug-2024</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>19-Feb-2026</t>
+          <t>17-Aug-2026</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -976,36 +984,330 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>ULD Hoist (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-008</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>21-Jan-2025</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>21-Jan-2027</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>490</v>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Truck dock (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-006</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>26-Jan-2025</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>26-Jan-2027</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>495</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Cool Room (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-011</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>10-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>10-Sep-2027</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>722</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Climate Control Center (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-014</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>05-Nov-2024</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>05-Nov-2026</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>413</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>03-Oct-2024</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>03-Oct-2025</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>19-Feb-2025</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19-Feb-2026</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>154</v>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
           <t>SOP for Non Powered Roller Deck And ULD Aisle (SOPs)</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>22-Jul-2025</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>22-Jul-2026</t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
-        <v>308</v>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>16-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="H18" s="3" t="n">
+        <v>307</v>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
